--- a/biology/Histoire de la zoologie et de la botanique/Nelson_Annandale/Nelson_Annandale.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Nelson_Annandale/Nelson_Annandale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Nelson Annandale est un zoologiste et un anthropologue écossais, né le 15 juin 1876 à Édimbourg et mort le 10 avril 1924 à Calcutta.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’un chirurgien, il fait ses études à l’université d'Édimbourg et à Oxford (à Balliol College). En 1905, il obtient son doctorat de science à Édimbourg. L’année suivante, il part comme directeur-adjoint à l’Indian Museum de Calcutta. En 1907, il est nommé directeur de ce muséum, fonction autrefois tenue par John Anderson (1833-1900).
 Sous son action, le Muséum voit ses programmes de recherches comme ses collections s’enrichir considérablement. Annandale initie la parution des Records et des Memoirs, deux revues de zoologie. Ces activités favorisent l’émergence d’une véritable recherche zoologique indienne.
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1909 : Notes on freshwater sponges. X. Report on a small collection from Travancore. Rec. Indian Mus., 3 : 101-104
 1909 : Notes on freshwater sponges XI. Description of a new species of Spongilla from Orissa. Rec. Indian Mus., 3 : 275
